--- a/docs/descriptive_statistics.xlsx
+++ b/docs/descriptive_statistics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Rolling_Avg_Misaligned_1M</t>
+          <t>Rolling_Avg_Misaligned_6M</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -539,7 +539,7 @@
         <v>0.13</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -649,292 +649,260 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>log_voting_power</t>
+          <t>total_decisions_participated</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6032277</v>
       </c>
       <c r="C7" t="n">
-        <v>2.08</v>
+        <v>27.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.45</v>
+        <v>40.43</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>40</v>
       </c>
       <c r="I7" t="n">
-        <v>33.28</v>
+        <v>898</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>total_decisions_participated</t>
+          <t>last_vote_previous_decision</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>6032277</v>
       </c>
       <c r="C8" t="n">
-        <v>27.4</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>40.43</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>898</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89.93000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>last_vote_previous_decision</t>
+          <t>time_since_last_vote</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>6032277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>7.32</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>23.67</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5.03</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>89.93000000000001</v>
-      </c>
+        <v>860.9400000000001</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>time_since_last_vote</t>
+          <t>voting_period_length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>6032277</v>
       </c>
       <c r="C10" t="n">
-        <v>7.32</v>
+        <v>5.66</v>
       </c>
       <c r="D10" t="n">
-        <v>23.67</v>
+        <v>8.58</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>5.03</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>860.9400000000001</v>
+        <v>941.96</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>voting_period_length</t>
+          <t>voter_experience_days</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>6032277</v>
       </c>
       <c r="C11" t="n">
-        <v>5.66</v>
+        <v>125.93</v>
       </c>
       <c r="D11" t="n">
-        <v>8.58</v>
+        <v>147.34</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="I11" t="n">
-        <v>941.96</v>
+        <v>1122</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>voter_experience_days</t>
+          <t>organization_size</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>6032277</v>
       </c>
       <c r="C12" t="n">
-        <v>125.93</v>
+        <v>36823.28</v>
       </c>
       <c r="D12" t="n">
-        <v>147.34</v>
+        <v>29787.61</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>7138</v>
       </c>
       <c r="G12" t="n">
-        <v>81</v>
+        <v>30436</v>
       </c>
       <c r="H12" t="n">
-        <v>174</v>
+        <v>60714</v>
       </c>
       <c r="I12" t="n">
-        <v>1122</v>
+        <v>114437</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>organization_size</t>
+          <t>presence_other_organizations</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>6032277</v>
       </c>
       <c r="C13" t="n">
-        <v>36823.28</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>29787.61</v>
+        <v>1.88</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7138</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>30436</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>60714</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>114437</v>
+        <v>39</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>presence_other_organizations</t>
+          <t>total_votes_decision</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>6032277</v>
       </c>
       <c r="C14" t="n">
-        <v>1.65</v>
+        <v>14339.57</v>
       </c>
       <c r="D14" t="n">
-        <v>1.88</v>
+        <v>16508.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1495</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>10722</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>16152</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>63845</v>
       </c>
       <c r="J14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>total_votes_decision</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6032277</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14339.57</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16508.75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1495</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10722</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16152</v>
-      </c>
-      <c r="I15" t="n">
-        <v>63845</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
